--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCImmunization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4077" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361" uniqueCount="507">
   <si>
     <t>Path</t>
   </si>
@@ -1020,178 +1020,6 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
   </si>
   <si>
-    <t>Immunization.manufacturer.id</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.extension</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.reference</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.type</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.identifier</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.identifier.id</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.identifier.extension</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.identifier.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.identifier.assigner</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.display</t>
-  </si>
-  <si>
     <t>Immunization.lotNumber</t>
   </si>
   <si>
@@ -1406,10 +1234,6 @@
     <t>Extra information about the immunization that is not conveyed by the other attributes.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:text}
-</t>
-  </si>
-  <si>
     <t>Event.note</t>
   </si>
   <si>
@@ -1417,74 +1241,6 @@
   </si>
   <si>
     <t>note</t>
-  </si>
-  <si>
-    <t>ddccDueDate</t>
-  </si>
-  <si>
-    <t>Immunization.note.id</t>
-  </si>
-  <si>
-    <t>Immunization.note.extension</t>
-  </si>
-  <si>
-    <t>Immunization.note.author[x]</t>
-  </si>
-  <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
-string</t>
-  </si>
-  <si>
-    <t>Individual responsible for the annotation</t>
-  </si>
-  <si>
-    <t>The individual responsible for making the annotation.</t>
-  </si>
-  <si>
-    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
-  </si>
-  <si>
-    <t>Annotation.author[x]</t>
-  </si>
-  <si>
-    <t>Act.participant[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>Immunization.note.time</t>
-  </si>
-  <si>
-    <t>When the annotation was made</t>
-  </si>
-  <si>
-    <t>Indicates when this particular annotation was made.</t>
-  </si>
-  <si>
-    <t>Annotation.time</t>
-  </si>
-  <si>
-    <t>Act.effectiveTime</t>
-  </si>
-  <si>
-    <t>Immunization.note.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>The annotation  - text content (as markdown)</t>
-  </si>
-  <si>
-    <t>The text of the annotation in markdown format.</t>
-  </si>
-  <si>
-    <t>Due date of next dose</t>
-  </si>
-  <si>
-    <t>Annotation.text</t>
-  </si>
-  <si>
-    <t>Act.text</t>
   </si>
   <si>
     <t>Immunization.reasonCode</t>
@@ -1976,7 +1732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN114"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2008,7 +1764,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="83.5234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -6931,7 +6687,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>323</v>
       </c>
@@ -6939,7 +6695,9 @@
       <c r="C44" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6947,7 +6705,7 @@
         <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -6959,10 +6717,10 @@
         <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>165</v>
+        <v>326</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7013,7 +6771,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>166</v>
+        <v>323</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -7025,38 +6783,38 @@
         <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>41</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>41</v>
@@ -7068,17 +6826,15 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>97</v>
+        <v>331</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>169</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -7115,40 +6871,40 @@
         <v>41</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>172</v>
+        <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>167</v>
+        <v>335</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
@@ -7159,7 +6915,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7179,20 +6935,18 @@
         <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -7217,13 +6971,13 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
@@ -7241,7 +6995,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7250,7 +7004,7 @@
         <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>63</v>
@@ -7259,21 +7013,21 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>94</v>
+        <v>342</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>41</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7293,20 +7047,18 @@
         <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -7331,13 +7083,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>301</v>
+        <v>147</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -7355,7 +7107,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7373,21 +7125,21 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>94</v>
+        <v>350</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>41</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7395,32 +7147,30 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>125</v>
+        <v>353</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -7469,7 +7219,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7487,10 +7237,10 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7501,7 +7251,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7512,7 +7262,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>41</v>
@@ -7521,16 +7271,16 @@
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>53</v>
+        <v>359</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>165</v>
+        <v>361</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7581,28 +7331,28 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>166</v>
+        <v>358</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>167</v>
+        <v>364</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7613,18 +7363,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>41</v>
@@ -7636,17 +7386,15 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -7683,31 +7431,31 @@
         <v>41</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>41</v>
@@ -7727,43 +7475,41 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>331</v>
+        <v>169</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
+        <v>170</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
       </c>
@@ -7787,13 +7533,13 @@
         <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>41</v>
@@ -7811,28 +7557,28 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>337</v>
+        <v>172</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7843,42 +7589,42 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>41</v>
+        <v>368</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>342</v>
+        <v>121</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>343</v>
+        <v>122</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7903,13 +7649,13 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7927,28 +7673,28 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>338</v>
+        <v>94</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7957,9 +7703,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7967,13 +7713,13 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -7982,20 +7728,16 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
       </c>
@@ -8007,7 +7749,7 @@
         <v>41</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>41</v>
@@ -8019,13 +7761,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -8043,7 +7785,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -8058,13 +7800,13 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -8073,15 +7815,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="E54" t="s" s="2">
         <v>51</v>
       </c>
@@ -8089,7 +7833,7 @@
         <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -8098,16 +7842,16 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>53</v>
+        <v>381</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8121,7 +7865,7 @@
         <v>41</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>41</v>
@@ -8157,10 +7901,10 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>51</v>
@@ -8172,16 +7916,16 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>363</v>
+        <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -8189,7 +7933,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8200,7 +7944,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
@@ -8212,13 +7956,13 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8269,13 +8013,13 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -8284,13 +8028,13 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8301,7 +8045,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8312,7 +8056,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>41</v>
@@ -8321,20 +8065,18 @@
         <v>41</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>317</v>
+        <v>143</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -8359,13 +8101,13 @@
         <v>41</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>41</v>
+        <v>399</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>41</v>
@@ -8383,13 +8125,13 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
@@ -8398,13 +8140,13 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>41</v>
+        <v>400</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>377</v>
+        <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8415,7 +8157,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8426,7 +8168,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
@@ -8435,20 +8177,18 @@
         <v>41</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>53</v>
+        <v>403</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
@@ -8497,13 +8237,13 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
@@ -8512,7 +8252,7 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
@@ -8527,17 +8267,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D58" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
@@ -8545,29 +8283,33 @@
         <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H58" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I58" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="Q58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8611,7 +8353,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8629,21 +8371,21 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>385</v>
+        <v>94</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>386</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8654,7 +8396,7 @@
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>41</v>
@@ -8666,13 +8408,13 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>388</v>
+        <v>143</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8699,13 +8441,13 @@
         <v>41</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>41</v>
+        <v>415</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>41</v>
+        <v>416</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>41</v>
@@ -8723,13 +8465,13 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>41</v>
@@ -8741,10 +8483,10 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>392</v>
+        <v>94</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
@@ -8755,7 +8497,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8766,7 +8508,7 @@
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
@@ -8778,13 +8520,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>143</v>
+        <v>359</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8811,13 +8553,13 @@
         <v>41</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>396</v>
+        <v>41</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>397</v>
+        <v>41</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>41</v>
@@ -8835,39 +8577,39 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>63</v>
+        <v>420</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>398</v>
+        <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>399</v>
+        <v>94</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>400</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8890,13 +8632,13 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>402</v>
+        <v>164</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>403</v>
+        <v>165</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8923,13 +8665,13 @@
         <v>41</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>404</v>
+        <v>41</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>41</v>
@@ -8947,7 +8689,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>401</v>
+        <v>166</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8959,38 +8701,38 @@
         <v>41</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>406</v>
+        <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>407</v>
+        <v>167</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>408</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
@@ -9002,15 +8744,17 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>410</v>
+        <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>411</v>
+        <v>169</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>41</v>
@@ -9059,28 +8803,28 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>409</v>
+        <v>172</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>413</v>
+        <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>414</v>
+        <v>167</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -9091,11 +8835,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>41</v>
+        <v>368</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9108,22 +8852,26 @@
         <v>41</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>416</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>41</v>
       </c>
@@ -9171,7 +8919,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9183,16 +8931,16 @@
         <v>41</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>420</v>
+        <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>421</v>
+        <v>94</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -9203,7 +8951,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9229,10 +8977,10 @@
         <v>53</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>164</v>
+        <v>425</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>165</v>
+        <v>426</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9283,7 +9031,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>166</v>
+        <v>424</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9295,16 +9043,16 @@
         <v>41</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>41</v>
+        <v>427</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -9315,18 +9063,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>41</v>
@@ -9338,17 +9086,15 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>169</v>
+        <v>429</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9397,19 +9143,19 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>172</v>
+        <v>428</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>41</v>
@@ -9418,7 +9164,7 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9429,43 +9175,39 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>425</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>97</v>
+        <v>252</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>41</v>
       </c>
@@ -9513,25 +9255,25 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>41</v>
+        <v>434</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>94</v>
@@ -9545,7 +9287,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9565,16 +9307,16 @@
         <v>41</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9601,13 +9343,13 @@
         <v>41</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>432</v>
+        <v>41</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>433</v>
+        <v>41</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>41</v>
@@ -9625,7 +9367,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9640,13 +9382,13 @@
         <v>63</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>434</v>
+        <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>41</v>
+        <v>438</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>435</v>
+        <v>94</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9657,20 +9399,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D68" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>41</v>
@@ -9679,20 +9419,18 @@
         <v>41</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>438</v>
+        <v>143</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M68" t="s" s="2">
         <v>441</v>
       </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>41</v>
@@ -9717,13 +9455,13 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>41</v>
+        <v>442</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>41</v>
+        <v>443</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9741,13 +9479,13 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>41</v>
@@ -9756,16 +9494,16 @@
         <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>442</v>
+        <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>41</v>
+        <v>444</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>443</v>
+        <v>94</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>444</v>
+        <v>41</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -9784,7 +9522,7 @@
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>41</v>
@@ -9793,16 +9531,16 @@
         <v>41</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9829,21 +9567,23 @@
         <v>41</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>41</v>
+        <v>448</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>41</v>
+        <v>449</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AB69" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC69" t="s" s="2">
         <v>41</v>
       </c>
@@ -9857,7 +9597,7 @@
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>41</v>
@@ -9866,13 +9606,13 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>450</v>
+        <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>451</v>
+        <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>452</v>
+        <v>94</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9883,11 +9623,9 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>41</v>
       </c>
@@ -9896,7 +9634,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>41</v>
@@ -9905,18 +9643,20 @@
         <v>41</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>446</v>
+        <v>359</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>41</v>
@@ -9965,7 +9705,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9980,13 +9720,13 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>450</v>
+        <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9997,7 +9737,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10109,7 +9849,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10179,16 +9919,16 @@
         <v>41</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>172</v>
@@ -10223,41 +9963,43 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>41</v>
+        <v>368</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>457</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>458</v>
+        <v>369</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>459</v>
+        <v>370</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>41</v>
       </c>
@@ -10305,28 +10047,28 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10337,7 +10079,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10345,7 +10087,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>51</v>
@@ -10357,16 +10099,16 @@
         <v>41</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>252</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10417,7 +10159,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10435,10 +10177,10 @@
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>94</v>
+        <v>462</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>467</v>
+        <v>258</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10449,7 +10191,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10457,7 +10199,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>51</v>
@@ -10469,16 +10211,16 @@
         <v>41</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10490,7 +10232,7 @@
         <v>41</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>472</v>
+        <v>41</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>41</v>
@@ -10529,10 +10271,10 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>51</v>
@@ -10547,10 +10289,10 @@
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>94</v>
+        <v>467</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10561,7 +10303,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10572,7 +10314,7 @@
         <v>42</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>41</v>
@@ -10584,13 +10326,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10617,13 +10359,13 @@
         <v>41</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>478</v>
+        <v>41</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>479</v>
+        <v>41</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>41</v>
@@ -10641,13 +10383,13 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>41</v>
@@ -10656,13 +10398,13 @@
         <v>63</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>480</v>
+        <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>41</v>
+        <v>472</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10673,7 +10415,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10681,13 +10423,13 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -10696,13 +10438,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>483</v>
+        <v>359</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10741,19 +10483,17 @@
         <v>41</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10768,7 +10508,7 @@
         <v>63</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>485</v>
+        <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>41</v>
@@ -10785,7 +10525,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10802,30 +10542,26 @@
         <v>41</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>487</v>
+        <v>164</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P78" t="s" s="2">
-        <v>490</v>
-      </c>
+      <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>41</v>
       </c>
@@ -10869,7 +10605,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>486</v>
+        <v>166</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10881,16 +10617,16 @@
         <v>41</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>491</v>
+        <v>41</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>41</v>
@@ -10901,11 +10637,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10924,15 +10660,17 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>493</v>
+        <v>169</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>41</v>
@@ -10957,13 +10695,13 @@
         <v>41</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>495</v>
+        <v>41</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>496</v>
+        <v>41</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>41</v>
@@ -10981,7 +10719,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>492</v>
+        <v>172</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10993,7 +10731,7 @@
         <v>41</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>41</v>
@@ -11002,7 +10740,7 @@
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
@@ -11013,11 +10751,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>41</v>
+        <v>368</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11030,22 +10768,26 @@
         <v>41</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>416</v>
+        <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>498</v>
+        <v>369</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>41</v>
       </c>
@@ -11093,7 +10835,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>497</v>
+        <v>371</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -11105,7 +10847,7 @@
         <v>41</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>500</v>
+        <v>103</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>41</v>
@@ -11125,7 +10867,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11151,10 +10893,10 @@
         <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>164</v>
+        <v>482</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>165</v>
+        <v>483</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11205,7 +10947,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>166</v>
+        <v>481</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11217,7 +10959,7 @@
         <v>41</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>41</v>
@@ -11226,7 +10968,7 @@
         <v>41</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>41</v>
@@ -11237,18 +10979,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>41</v>
@@ -11260,17 +11002,15 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>169</v>
+        <v>485</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>41</v>
@@ -11319,19 +11059,19 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>172</v>
+        <v>484</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>41</v>
@@ -11340,7 +11080,7 @@
         <v>41</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>41</v>
@@ -11351,11 +11091,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>425</v>
+        <v>41</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11368,26 +11108,22 @@
         <v>41</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>41</v>
       </c>
@@ -11411,13 +11147,13 @@
         <v>41</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>41</v>
+        <v>490</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>41</v>
+        <v>491</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>41</v>
@@ -11435,7 +11171,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11447,7 +11183,7 @@
         <v>41</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>41</v>
@@ -11467,7 +11203,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11475,7 +11211,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>51</v>
@@ -11490,15 +11226,17 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>53</v>
+        <v>493</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11547,10 +11285,10 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>51</v>
@@ -11565,7 +11303,7 @@
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>507</v>
+        <v>41</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>94</v>
@@ -11579,7 +11317,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11602,15 +11340,17 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>65</v>
+        <v>493</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>41</v>
@@ -11659,7 +11399,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11689,23 +11429,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="C86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>41</v>
@@ -11714,13 +11456,13 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>252</v>
+        <v>359</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>512</v>
+        <v>475</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11771,13 +11513,13 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>511</v>
+        <v>474</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>41</v>
@@ -11789,7 +11531,7 @@
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>514</v>
+        <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>94</v>
@@ -11803,7 +11545,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>515</v>
+        <v>478</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11826,13 +11568,13 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>252</v>
+        <v>53</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>516</v>
+        <v>164</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>517</v>
+        <v>165</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11883,7 +11625,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>515</v>
+        <v>166</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11895,16 +11637,16 @@
         <v>41</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>518</v>
+        <v>41</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>41</v>
@@ -11915,11 +11657,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11938,15 +11680,17 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>520</v>
+        <v>169</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>41</v>
@@ -11971,13 +11715,13 @@
         <v>41</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>522</v>
+        <v>41</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>523</v>
+        <v>41</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>41</v>
@@ -11995,7 +11739,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>519</v>
+        <v>172</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -12007,16 +11751,16 @@
         <v>41</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>524</v>
+        <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>41</v>
@@ -12027,39 +11771,43 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>41</v>
+        <v>368</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>526</v>
+        <v>369</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>41</v>
       </c>
@@ -12083,13 +11831,13 @@
         <v>41</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>528</v>
+        <v>41</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>529</v>
+        <v>41</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>41</v>
@@ -12107,19 +11855,19 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>525</v>
+        <v>371</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>41</v>
@@ -12139,7 +11887,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12150,7 +11898,7 @@
         <v>42</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>41</v>
@@ -12162,17 +11910,15 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>416</v>
+        <v>53</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>41</v>
@@ -12221,13 +11967,13 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>41</v>
@@ -12239,10 +11985,10 @@
         <v>41</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>534</v>
+        <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>535</v>
+        <v>94</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>41</v>
@@ -12253,7 +11999,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>536</v>
+        <v>484</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12276,13 +12022,13 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>53</v>
+        <v>501</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>164</v>
+        <v>485</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>165</v>
+        <v>486</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12333,7 +12079,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>166</v>
+        <v>484</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12345,7 +12091,7 @@
         <v>41</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>41</v>
@@ -12354,7 +12100,7 @@
         <v>41</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>41</v>
@@ -12365,13 +12111,15 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D92" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="E92" t="s" s="2">
         <v>42</v>
       </c>
@@ -12388,17 +12136,15 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>169</v>
+        <v>488</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>41</v>
@@ -12423,13 +12169,11 @@
         <v>41</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="X92" s="2"/>
       <c r="Y92" t="s" s="2">
-        <v>41</v>
+        <v>503</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>41</v>
@@ -12447,7 +12191,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>172</v>
+        <v>487</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12459,7 +12203,7 @@
         <v>41</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>41</v>
@@ -12468,7 +12212,7 @@
         <v>41</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>41</v>
@@ -12477,45 +12221,45 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>538</v>
+        <v>492</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="D93" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="E93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>97</v>
+        <v>505</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>41</v>
       </c>
@@ -12563,19 +12307,19 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>41</v>
@@ -12595,13 +12339,15 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>539</v>
+        <v>497</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="E94" t="s" s="2">
         <v>42</v>
       </c>
@@ -12618,15 +12364,17 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>252</v>
+        <v>505</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>540</v>
+        <v>498</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>41</v>
@@ -12675,7 +12423,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>539</v>
+        <v>497</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12693,2284 +12441,20 @@
         <v>41</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>542</v>
+        <v>41</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AB97" s="2"/>
-      <c r="AC97" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D112" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="E112" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X112" s="2"/>
-      <c r="Y112" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D113" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="E113" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D114" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="E114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN114" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN114">
+  <autoFilter ref="A1:AN94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14980,7 +12464,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI113">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCImmunization.xlsx
@@ -348,7 +348,7 @@
     <t>Vaccine brand</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCVaccineBrand}
+    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCVaccineBrand}
 </t>
   </si>
   <si>
@@ -365,7 +365,7 @@
     <t>Vaccine market authorization holder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCVaccineMarketAuthorization}
+    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCVaccineMarketAuthorization}
 </t>
   </si>
   <si>
@@ -378,7 +378,7 @@
     <t>Country of vaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCCountryOfVaccination}
+    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCCountryOfVaccination}
 </t>
   </si>
   <si>
@@ -658,7 +658,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>https://who-int.github.io/svc/refs/heads/rc2/ValueSet/who-ddcc-vaccines-covid-19</t>
+    <t>https://worldhealthorganization.github.io/ddcc-rcs1/ValueSet/who-ddcc-vaccines-covid-19</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -746,7 +746,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -1199,7 +1199,7 @@
     <t>Health worker identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCPractitioner|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCOrganization)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPractitioner|https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCOrganization)
 </t>
   </si>
   <si>
@@ -1566,14 +1566,14 @@
     <t>protocolAppliedAuthority</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCOrganization)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCOrganization)
 </t>
   </si>
   <si>
     <t>Disease or agent targeted</t>
   </si>
   <si>
-    <t>https://who-int.github.io/svc/refs/heads/rc2/ValueSet/who-ddcc-disease-targeted-covid-19</t>
+    <t>https://worldhealthorganization.github.io/ddcc-rcs1/ValueSet/who-ddcc-disease-targeted-covid-19</t>
   </si>
   <si>
     <t>Dose number</t>
@@ -1765,7 +1765,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="83.5234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCImmunization.xlsx
@@ -348,7 +348,7 @@
     <t>Vaccine brand</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCVaccineBrand}
+    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCVaccineBrand}
 </t>
   </si>
   <si>
@@ -365,7 +365,7 @@
     <t>Vaccine market authorization holder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCVaccineMarketAuthorization}
+    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCVaccineMarketAuthorization}
 </t>
   </si>
   <si>
@@ -378,7 +378,7 @@
     <t>Country of vaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCCountryOfVaccination}
+    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCCountryOfVaccination}
 </t>
   </si>
   <si>
@@ -658,7 +658,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>https://worldhealthorganization.github.io/ddcc-rcs1/ValueSet/who-ddcc-vaccines-covid-19</t>
+    <t>https://worldhealthorganization.github.io/ddcc/ValueSet/who-ddcc-vaccines-covid-19</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -746,7 +746,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -1199,7 +1199,7 @@
     <t>Health worker identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPractitioner|https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCOrganization)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPractitioner|https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
 </t>
   </si>
   <si>
@@ -1566,14 +1566,14 @@
     <t>protocolAppliedAuthority</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCOrganization)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
 </t>
   </si>
   <si>
     <t>Disease or agent targeted</t>
   </si>
   <si>
-    <t>https://worldhealthorganization.github.io/ddcc-rcs1/ValueSet/who-ddcc-disease-targeted-covid-19</t>
+    <t>https://worldhealthorganization.github.io/ddcc/ValueSet/who-ddcc-disease-targeted-covid-19</t>
   </si>
   <si>
     <t>Dose number</t>
@@ -1765,7 +1765,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="91.015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.47265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
